--- a/public/uploads/product.xlsx
+++ b/public/uploads/product.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOD LOVE ME\Desktop\Report Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9792AC7C-17CC-49D7-9B01-9F143D224336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4B6876-BF1E-4218-A16A-94F580B26C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="168">
   <si>
     <t>Active</t>
   </si>
@@ -517,6 +517,18 @@
   </si>
   <si>
     <t>code</t>
+  </si>
+  <si>
+    <t>SF2T2024</t>
+  </si>
+  <si>
+    <t>School Fees 2nd Term 2024</t>
+  </si>
+  <si>
+    <t>RF001</t>
+  </si>
+  <si>
+    <t>Registration Fee</t>
   </si>
 </sst>
 </file>
@@ -871,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P70"/>
+  <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,10 +1361,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
@@ -1368,10 +1380,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="4">
-        <v>40</v>
+        <v>650</v>
       </c>
       <c r="M12" s="4">
-        <v>40</v>
+        <v>650</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>5</v>
@@ -1389,10 +1401,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>4</v>
@@ -1408,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="4">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="M13" s="4">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>5</v>
@@ -1429,10 +1441,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -1448,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="4">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="M14" s="4">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
@@ -1469,10 +1481,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>4</v>
@@ -1488,10 +1500,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="4">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="M15" s="4">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>5</v>
@@ -1509,10 +1521,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>4</v>
@@ -1528,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="L16" s="4">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="M16" s="4">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>5</v>
@@ -1549,10 +1561,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>4</v>
@@ -1568,10 +1580,10 @@
         <v>0</v>
       </c>
       <c r="L17" s="4">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="M17" s="4">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>5</v>
@@ -1589,10 +1601,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>4</v>
@@ -1608,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="L18" s="4">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="M18" s="4">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>5</v>
@@ -1629,10 +1641,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>4</v>
@@ -1648,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="L19" s="4">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="M19" s="4">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>5</v>
@@ -1669,10 +1681,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>4</v>
@@ -1688,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="4">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="M20" s="4">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>5</v>
@@ -1709,10 +1721,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
@@ -1728,10 +1740,10 @@
         <v>0</v>
       </c>
       <c r="L21" s="4">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="M21" s="4">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>5</v>
@@ -1749,10 +1761,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
@@ -1768,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="4">
-        <v>510</v>
+        <v>250</v>
       </c>
       <c r="M22" s="4">
-        <v>510</v>
+        <v>250</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>5</v>
@@ -1789,10 +1801,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>4</v>
@@ -1808,10 +1820,10 @@
         <v>0</v>
       </c>
       <c r="L23" s="4">
-        <v>-65</v>
+        <v>510</v>
       </c>
       <c r="M23" s="4">
-        <v>-65</v>
+        <v>510</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>5</v>
@@ -1829,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>48</v>
@@ -1848,10 +1860,10 @@
         <v>0</v>
       </c>
       <c r="L24" s="4">
-        <v>-130</v>
+        <v>-65</v>
       </c>
       <c r="M24" s="4">
-        <v>-130</v>
+        <v>-65</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>5</v>
@@ -1869,10 +1881,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>4</v>
@@ -1888,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="L25" s="4">
-        <v>100</v>
+        <v>-130</v>
       </c>
       <c r="M25" s="4">
-        <v>100</v>
+        <v>-130</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>5</v>
@@ -1909,10 +1921,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>4</v>
@@ -1928,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="L26" s="4">
-        <v>-70</v>
+        <v>100</v>
       </c>
       <c r="M26" s="4">
-        <v>-70</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>5</v>
@@ -1949,10 +1961,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>4</v>
@@ -1968,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="L27" s="4">
-        <v>-58</v>
+        <v>-70</v>
       </c>
       <c r="M27" s="4">
-        <v>-58</v>
+        <v>-70</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>5</v>
@@ -1989,10 +2001,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>4</v>
@@ -2008,10 +2020,10 @@
         <v>0</v>
       </c>
       <c r="L28" s="4">
-        <v>-30</v>
+        <v>-58</v>
       </c>
       <c r="M28" s="4">
-        <v>-30</v>
+        <v>-58</v>
       </c>
       <c r="N28" s="3" t="s">
         <v>5</v>
@@ -2029,10 +2041,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>4</v>
@@ -2048,10 +2060,10 @@
         <v>0</v>
       </c>
       <c r="L29" s="4">
-        <v>-116</v>
+        <v>-30</v>
       </c>
       <c r="M29" s="4">
-        <v>-116</v>
+        <v>-30</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -2069,10 +2081,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>4</v>
@@ -2088,10 +2100,10 @@
         <v>0</v>
       </c>
       <c r="L30" s="4">
-        <v>510</v>
+        <v>-116</v>
       </c>
       <c r="M30" s="4">
-        <v>510</v>
+        <v>-116</v>
       </c>
       <c r="N30" s="3" t="s">
         <v>5</v>
@@ -2109,10 +2121,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>4</v>
@@ -2128,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="L31" s="4">
-        <v>180</v>
+        <v>510</v>
       </c>
       <c r="M31" s="4">
-        <v>180</v>
+        <v>510</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>5</v>
@@ -2149,10 +2161,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>4</v>
@@ -2168,10 +2180,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="4">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="M32" s="4">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>5</v>
@@ -2189,10 +2201,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>4</v>
@@ -2208,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="L33" s="4">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="M33" s="4">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>5</v>
@@ -2229,10 +2241,10 @@
         <v>1</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>4</v>
@@ -2248,10 +2260,10 @@
         <v>0</v>
       </c>
       <c r="L34" s="4">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="M34" s="4">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="N34" s="3" t="s">
         <v>5</v>
@@ -2269,10 +2281,10 @@
         <v>1</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>4</v>
@@ -2288,10 +2300,10 @@
         <v>0</v>
       </c>
       <c r="L35" s="4">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="M35" s="4">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>5</v>
@@ -2309,10 +2321,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>4</v>
@@ -2328,10 +2340,10 @@
         <v>0</v>
       </c>
       <c r="L36" s="4">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M36" s="4">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N36" s="3" t="s">
         <v>5</v>
@@ -2349,10 +2361,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>4</v>
@@ -2368,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="L37" s="4">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="M37" s="4">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N37" s="3" t="s">
         <v>5</v>
@@ -2389,10 +2401,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>4</v>
@@ -2408,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="L38" s="4">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="M38" s="4">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>5</v>
@@ -2429,10 +2441,10 @@
         <v>1</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>4</v>
@@ -2448,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="L39" s="4">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="M39" s="4">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N39" s="3" t="s">
         <v>5</v>
@@ -2469,10 +2481,10 @@
         <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>4</v>
@@ -2488,10 +2500,10 @@
         <v>0</v>
       </c>
       <c r="L40" s="4">
-        <v>5</v>
+        <v>360</v>
       </c>
       <c r="M40" s="4">
-        <v>5</v>
+        <v>360</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>5</v>
@@ -2506,40 +2518,32 @@
         <v>0</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>87</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
       <c r="H41" s="4">
         <v>0</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J41" s="5">
-        <v>15</v>
-      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="5"/>
       <c r="K41" s="4">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L41" s="4">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="M41" s="4">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>5</v>
@@ -2557,10 +2561,10 @@
         <v>82</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>85</v>
@@ -2575,19 +2579,19 @@
         <v>0</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J42" s="5">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="K42" s="4">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="L42" s="4">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="M42" s="4">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>5</v>
@@ -2605,10 +2609,10 @@
         <v>82</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>85</v>
@@ -2623,19 +2627,19 @@
         <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J43" s="5">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="K43" s="4">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="L43" s="4">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="M43" s="4">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>5</v>
@@ -2653,10 +2657,10 @@
         <v>82</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>85</v>
@@ -2671,19 +2675,19 @@
         <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J44" s="5">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="K44" s="4">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L44" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M44" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>5</v>
@@ -2701,10 +2705,10 @@
         <v>82</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>85</v>
@@ -2719,13 +2723,13 @@
         <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J45" s="5">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="K45" s="4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L45" s="4">
         <v>5</v>
@@ -2749,10 +2753,10 @@
         <v>82</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>85</v>
@@ -2767,10 +2771,10 @@
         <v>0</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J46" s="5">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="K46" s="4">
         <v>3</v>
@@ -2797,10 +2801,10 @@
         <v>82</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>85</v>
@@ -2815,19 +2819,19 @@
         <v>0</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J47" s="5">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="K47" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L47" s="4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M47" s="4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>5</v>
@@ -2845,10 +2849,10 @@
         <v>82</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>85</v>
@@ -2863,19 +2867,19 @@
         <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J48" s="5">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="K48" s="4">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L48" s="4">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M48" s="4">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>5</v>
@@ -2893,10 +2897,10 @@
         <v>82</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>85</v>
@@ -2911,10 +2915,10 @@
         <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J49" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K49" s="4">
         <v>14</v>
@@ -2941,10 +2945,10 @@
         <v>82</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>85</v>
@@ -2959,19 +2963,19 @@
         <v>0</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J50" s="5">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="K50" s="4">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="L50" s="4">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="M50" s="4">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="N50" s="3" t="s">
         <v>5</v>
@@ -2989,10 +2993,10 @@
         <v>82</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>85</v>
@@ -3007,19 +3011,19 @@
         <v>0</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J51" s="5">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="K51" s="4">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="L51" s="4">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="M51" s="4">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="N51" s="3" t="s">
         <v>5</v>
@@ -3037,10 +3041,10 @@
         <v>82</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>85</v>
@@ -3055,19 +3059,19 @@
         <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J52" s="5">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="K52" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L52" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M52" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
@@ -3085,10 +3089,10 @@
         <v>82</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>85</v>
@@ -3103,19 +3107,19 @@
         <v>0</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J53" s="5">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K53" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L53" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M53" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N53" s="3" t="s">
         <v>5</v>
@@ -3133,10 +3137,10 @@
         <v>82</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>85</v>
@@ -3151,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J54" s="5">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="K54" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L54" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M54" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>5</v>
@@ -3181,10 +3185,10 @@
         <v>82</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>85</v>
@@ -3199,19 +3203,19 @@
         <v>0</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J55" s="5">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="K55" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L55" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M55" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N55" s="3" t="s">
         <v>5</v>
@@ -3229,10 +3233,10 @@
         <v>82</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>85</v>
@@ -3247,13 +3251,13 @@
         <v>0</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J56" s="5">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="K56" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L56" s="4">
         <v>10</v>
@@ -3277,10 +3281,10 @@
         <v>82</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>85</v>
@@ -3295,19 +3299,19 @@
         <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J57" s="5">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K57" s="4">
         <v>3</v>
       </c>
       <c r="L57" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M57" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>5</v>
@@ -3325,10 +3329,10 @@
         <v>82</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>85</v>
@@ -3343,19 +3347,19 @@
         <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J58" s="5">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="K58" s="4">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L58" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="M58" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>5</v>
@@ -3373,10 +3377,10 @@
         <v>82</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>85</v>
@@ -3391,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J59" s="5">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="K59" s="4">
         <v>15</v>
@@ -3421,10 +3425,10 @@
         <v>82</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>85</v>
@@ -3439,19 +3443,19 @@
         <v>0</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J60" s="5">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="K60" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L60" s="4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M60" s="4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>5</v>
@@ -3469,10 +3473,10 @@
         <v>82</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>85</v>
@@ -3487,19 +3491,19 @@
         <v>0</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J61" s="5">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="K61" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L61" s="4">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M61" s="4">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N61" s="3" t="s">
         <v>5</v>
@@ -3517,10 +3521,10 @@
         <v>82</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>85</v>
@@ -3535,19 +3539,19 @@
         <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J62" s="5">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="K62" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="L62" s="4">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="M62" s="4">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>5</v>
@@ -3565,10 +3569,10 @@
         <v>82</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>85</v>
@@ -3583,19 +3587,19 @@
         <v>0</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J63" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K63" s="4">
         <v>50</v>
       </c>
       <c r="L63" s="4">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="M63" s="4">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N63" s="3" t="s">
         <v>5</v>
@@ -3613,10 +3617,10 @@
         <v>82</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>85</v>
@@ -3631,19 +3635,19 @@
         <v>0</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J64" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K64" s="4">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L64" s="4">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="M64" s="4">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="N64" s="3" t="s">
         <v>5</v>
@@ -3661,10 +3665,10 @@
         <v>82</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>85</v>
@@ -3679,19 +3683,19 @@
         <v>0</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J65" s="5">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="K65" s="4">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="L65" s="4">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="M65" s="4">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N65" s="3" t="s">
         <v>5</v>
@@ -3709,10 +3713,10 @@
         <v>82</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>85</v>
@@ -3727,19 +3731,19 @@
         <v>0</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J66" s="5">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="K66" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L66" s="4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M66" s="4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>5</v>
@@ -3757,10 +3761,10 @@
         <v>82</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>85</v>
@@ -3775,19 +3779,19 @@
         <v>0</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J67" s="5">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="K67" s="4">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="L67" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M67" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N67" s="3" t="s">
         <v>5</v>
@@ -3805,10 +3809,10 @@
         <v>82</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>85</v>
@@ -3823,19 +3827,19 @@
         <v>0</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J68" s="5">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K68" s="4">
-        <v>12</v>
+        <v>4.5</v>
       </c>
       <c r="L68" s="4">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M68" s="4">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N68" s="3" t="s">
         <v>5</v>
@@ -3850,32 +3854,40 @@
         <v>0</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="H69" s="4">
         <v>0</v>
       </c>
-      <c r="I69" s="3"/>
-      <c r="J69" s="5"/>
+      <c r="I69" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J69" s="5">
+        <v>68</v>
+      </c>
       <c r="K69" s="4">
-        <v>0</v>
-      </c>
-      <c r="L69" s="6">
-        <v>0</v>
-      </c>
-      <c r="M69" s="6">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="L69" s="4">
+        <v>40</v>
+      </c>
+      <c r="M69" s="4">
+        <v>40</v>
       </c>
       <c r="N69" s="3" t="s">
         <v>5</v>
@@ -3890,16 +3902,16 @@
         <v>0</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -3907,15 +3919,17 @@
         <v>0</v>
       </c>
       <c r="I70" s="3"/>
-      <c r="J70" s="5"/>
+      <c r="J70" s="5">
+        <v>0</v>
+      </c>
       <c r="K70" s="4">
         <v>0</v>
       </c>
-      <c r="L70" s="6">
-        <v>0</v>
-      </c>
-      <c r="M70" s="6">
-        <v>0</v>
+      <c r="L70" s="4">
+        <v>40</v>
+      </c>
+      <c r="M70" s="4">
+        <v>40</v>
       </c>
       <c r="N70" s="3" t="s">
         <v>5</v>
@@ -3924,6 +3938,86 @@
         <v>5</v>
       </c>
       <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="4">
+        <v>0</v>
+      </c>
+      <c r="I71" s="3"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="4">
+        <v>0</v>
+      </c>
+      <c r="L71" s="6">
+        <v>0</v>
+      </c>
+      <c r="M71" s="6">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="4">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="4">
+        <v>0</v>
+      </c>
+      <c r="L72" s="6">
+        <v>0</v>
+      </c>
+      <c r="M72" s="6">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
